--- a/hw6.xlsx
+++ b/hw6.xlsx
@@ -1,29 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lectern.POLY.002\source\repos\FRE6811\fsl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6811\fsl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7414534F-A7EB-44E3-9274-C92A8F32017A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2779402F-A1D7-4777-B855-558EF5A3CC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFF01E12-B5FC-40DE-A282-E2B26797F4C7}"/>
+    <workbookView xWindow="612" yWindow="624" windowWidth="29424" windowHeight="15888" xr2:uid="{FFF01E12-B5FC-40DE-A282-E2B26797F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="B_t">_xlfn.ANCHORARRAY(Sheet1!$C$12)</definedName>
+    <definedName name="_M">_xlfn.ANCHORARRAY(Sheet1!$N$12)</definedName>
+    <definedName name="_N">_xlfn.ANCHORARRAY(Sheet1!$O$12)</definedName>
+    <definedName name="_time">_xlfn.ANCHORARRAY(Sheet1!$C$12)</definedName>
+    <definedName name="A_t">_xlfn.ANCHORARRAY(Sheet1!$T$12)</definedName>
+    <definedName name="B_t">_xlfn.ANCHORARRAY(Sheet1!$D$12)</definedName>
+    <definedName name="delta">Sheet1!$F$5</definedName>
     <definedName name="f">Sheet1!$C$4</definedName>
+    <definedName name="hedge">Sheet1!$F$7</definedName>
     <definedName name="k">Sheet1!$C$5</definedName>
-    <definedName name="R_t">_xlfn.ANCHORARRAY(Sheet1!$D$12)</definedName>
-    <definedName name="S_t">_xlfn.ANCHORARRAY(Sheet1!$E$12)</definedName>
+    <definedName name="M">_xlfn.ANCHORARRAY(Sheet1!$P$12)</definedName>
+    <definedName name="N">_xlfn.ANCHORARRAY(Sheet1!$Q$12)</definedName>
+    <definedName name="payoff">Sheet1!$F$6</definedName>
+    <definedName name="R_t">_xlfn.ANCHORARRAY(Sheet1!$E$12)</definedName>
+    <definedName name="S_t">_xlfn.ANCHORARRAY(Sheet1!$F$12)</definedName>
     <definedName name="step">Sheet1!$C$9</definedName>
     <definedName name="t">Sheet1!$C$6</definedName>
     <definedName name="time">_xlfn.ANCHORARRAY(Sheet1!$B$12)</definedName>
+    <definedName name="V_t">_xlfn.ANCHORARRAY(Sheet1!$R$12)</definedName>
+    <definedName name="value">Sheet1!$F$4</definedName>
     <definedName name="μ">Sheet1!$C$7</definedName>
     <definedName name="σ">Sheet1!$C$8</definedName>
   </definedNames>
@@ -39,10 +50,78 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Keith Lewis</author>
+  </authors>
+  <commentList>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{9A5ED4F1-6284-446C-9B00-6E74B545B393}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Delta_t = sum_s&lt;t_ Gamma_s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{98118CF4-173D-4B89-891B-F01C6741B384}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">V_t = (Gamma_t + Delta_t) . X_t
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{41CE93C0-8B95-4F1A-A97D-705DB90AEF78}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A_t = Delta_t . C_t - Gamma_t . X_t </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{F9D45ED5-8AE4-43D4-BD6B-0673C939D99C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Option value minus cost of stock hedge</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Put option hedging</t>
   </si>
@@ -124,26 +203,36 @@
     <t>_N</t>
   </si>
   <si>
-    <t>exp</t>
-  </si>
-  <si>
     <t>payoff</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>V</t>
+    <t>value</t>
+  </si>
+  <si>
+    <t>V_t</t>
+  </si>
+  <si>
+    <t>A_t</t>
+  </si>
+  <si>
+    <t>hedge</t>
+  </si>
+  <si>
+    <t>_time</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,16 +265,66 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,14 +332,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -221,10 +393,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="4"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Handle" xfId="1" xr:uid="{AA1E045E-A01E-40E3-85A5-FBFBBCF4A2DF}"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -308,9 +487,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +527,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -454,7 +633,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,403 +775,589 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="7">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{01BCD202-4818-4846-A142-FA7B62662218}">
+  <we:reference id="wa104380862" version="3.0.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104380862" version="3.0.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CA1D21-268D-4595-93D8-429A881B1BF8}">
-  <dimension ref="A2:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CA1D21-268D-4595-93D8-429A881B1BF8}">
+  <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.77734375" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>100</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
-        <f ca="1">MAX(k-E17,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F4" s="9" cm="1">
+        <f t="array" ref="F4">_xll.BLACK.PUT.VALUE(f,σ*SQRT(t),k)</f>
+        <v>1.9945036390476076</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9" cm="1">
+        <f t="array" ref="F5">_xll.BLACK.PUT.DELTA(f, σ*SQRT(t), k)</f>
+        <v>-0.49002748180476197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">MAX(k-_xlfn.TAKE(S_t,-1),0)</f>
+        <v>4.3670996658386798</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="array" aca="1" ref="G6:H6" ca="1">_xll.MONTE.STDEV(payoff)</f>
+        <v>1.9809206727980884</v>
+      </c>
+      <c r="H6" s="1">
+        <f ca="1"/>
+        <v>2.8332083243013</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10">
+        <f ca="1">L17</f>
+        <v>4.3932661496258021</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="array" aca="1" ref="G7:H7" ca="1">_xll.MONTE.STDEV(L17)</f>
+        <v>1.9805685950722043</v>
+      </c>
+      <c r="H7" s="1">
+        <f ca="1"/>
+        <v>2.7504197749936297</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D10" s="6" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="N11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <f>t-B12</f>
-        <v>0.25</v>
-      </c>
+      <c r="S11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="1" cm="1">
         <f t="array" ref="B12:B17">_xll.ARRAY.SEQUENCE(0, t, step)</f>
         <v>0</v>
       </c>
       <c r="C12" s="1" cm="1">
-        <f t="array" aca="1" ref="C12:C17" ca="1">_xll.BROWNIAN(time)</f>
+        <f t="array" ref="C12:C17">t-time</f>
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="1" cm="1">
+        <f t="array" aca="1" ref="D12:D17" ca="1">_xll.BROWNIAN(time)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="1" cm="1">
-        <f t="array" ref="D12:D17">0*time+1</f>
+      <c r="E12" s="1" cm="1">
+        <f t="array" ref="E12:E17">0*time+1</f>
         <v>1</v>
       </c>
-      <c r="E12" s="1" cm="1">
-        <f t="array" aca="1" ref="E12:E17" ca="1">f*EXP(σ*B_t - σ^2*time/2)</f>
+      <c r="F12" s="1" cm="1">
+        <f t="array" aca="1" ref="F12:F17" ca="1">f*EXP(σ*B_t - σ^2*time/2)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="1" cm="1">
-        <f t="array" aca="1" ref="G12" ca="1">_xll.BLACK.PUT.DELTA(E12, σ*SQRT(A12), k)</f>
+      <c r="G12" s="11">
+        <f>value - f*delta</f>
+        <v>50.997251819523804</v>
+      </c>
+      <c r="H12" s="11">
+        <f>delta</f>
         <v>-0.49002748180476197</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="1" cm="1">
-        <f t="array" aca="1" ref="J12" ca="1">SUMPRODUCT(H12:I12+F12:G12,D12:E12)</f>
-        <v>-49.002748180476196</v>
-      </c>
-      <c r="K12" s="1">
-        <f ca="1">-SUMPRODUCT(F12:G12,D12:E12)</f>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">SUMPRODUCT(I12:J12+G12:H12,E12:F12)</f>
+        <v>1.9945036390476076</v>
+      </c>
+      <c r="L12" s="1">
+        <f ca="1">-SUMPRODUCT(G12:H12,E12:F12)</f>
+        <v>-1.9945036390476076</v>
+      </c>
+      <c r="N12" s="1" cm="1">
+        <f t="array" aca="1" ref="N12:N17" ca="1">_xlfn.VSTACK(value-f*delta,_xlfn.DROP(-_N*S_t/R_t,2),0)</f>
+        <v>50.997251819523804</v>
+      </c>
+      <c r="O12" s="11" cm="1">
+        <f t="array" aca="1" ref="O12:O17" ca="1">_xlfn.VSTACK(_xlfn.DROP(N,1)-_xlfn.DROP(N,-1),-_xlfn.TAKE(N,-1))</f>
+        <v>-0.49002748180476197</v>
+      </c>
+      <c r="Q12" s="11" cm="1">
+        <f t="array" aca="1" ref="Q12:Q17" ca="1">_xlfn.VSTACK(0,_xlfn.DROP(_xlfn.MAP(S_t,_time,_xlfn.LAMBDA(_xlpm.f,_xlpm._t,_xll.BLACK.PUT.DELTA(_xlpm.f,σ*SQRT(_xlpm._t),k))),-1))</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" cm="1">
+        <f t="array" aca="1" ref="T12:T17" ca="1">-_N*S_t</f>
         <v>49.002748180476196</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <f>t-B13</f>
-        <v>0.2</v>
-      </c>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>0.05</v>
       </c>
       <c r="C13" s="1">
-        <f ca="1"/>
-        <v>-1.1121366469168158E-2</v>
+        <v>0.2</v>
       </c>
       <c r="D13" s="1">
+        <f ca="1"/>
+        <v>3.1467275446998573E-2</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <f ca="1"/>
-        <v>99.863879064012735</v>
-      </c>
       <c r="F13" s="1">
-        <f ca="1">-G13*E13/D13</f>
-        <v>1.3184994514923485</v>
-      </c>
-      <c r="G13" s="1" cm="1">
-        <f t="array" aca="1" ref="G13" ca="1">_xll.BLACK.PUT.DELTA(E13, σ*SQRT(A13), k)-I13</f>
-        <v>-1.3202966516523862E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <f ca="1">H12+F13</f>
-        <v>1.3184994514923485</v>
-      </c>
-      <c r="I13" s="1">
-        <f ca="1">I12+G12</f>
+        <f ca="1"/>
+        <v>100.29009271139574</v>
+      </c>
+      <c r="G13" s="11">
+        <f ca="1">-H13*F13/E13</f>
+        <v>-2.4816556623592119</v>
+      </c>
+      <c r="H13" s="11" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">_xll.BLACK.PUT.DELTA(F13, σ*SQRT(C13), k)-J13</f>
+        <v>2.4744773838236034E-2</v>
+      </c>
+      <c r="I13" s="11">
+        <f>G12</f>
+        <v>50.997251819523804</v>
+      </c>
+      <c r="J13" s="1">
+        <f>J12+H12</f>
         <v>-0.49002748180476197</v>
       </c>
-      <c r="J13" s="1" cm="1">
-        <f t="array" aca="1" ref="J13" ca="1">SUMPRODUCT(H13:I13+F13:G13,D13:E13)</f>
-        <v>-47.617545729501103</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" ref="K13:K17" ca="1" si="0">-SUMPRODUCT(F13:G13,D13:E13)</f>
+      <c r="K13" s="1" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">SUMPRODUCT(I13:J13+G13:H13,E13:F13)</f>
+        <v>1.8523502381924359</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13:L17" ca="1" si="0">-SUMPRODUCT(G13:H13,E13:F13)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <f>t-B14</f>
-        <v>0.15</v>
-      </c>
+      <c r="N13" s="1">
+        <f ca="1"/>
+        <v>7.1738285603819323</v>
+      </c>
+      <c r="O13" s="11">
+        <f ca="1"/>
+        <v>2.4744773838236034E-2</v>
+      </c>
+      <c r="Q13" s="11">
+        <f ca="1"/>
+        <v>-0.49002748180476197</v>
+      </c>
+      <c r="T13" s="1">
+        <f ca="1"/>
+        <v>-2.4816556623592119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>0.1</v>
       </c>
       <c r="C14" s="1">
-        <f ca="1"/>
-        <v>-6.9182311875739408E-2</v>
+        <v>0.15</v>
       </c>
       <c r="D14" s="1">
+        <f ca="1"/>
+        <v>-3.8799240181780069E-2</v>
+      </c>
+      <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
-        <f ca="1"/>
-        <v>99.260921597766099</v>
-      </c>
       <c r="F14" s="1">
-        <f t="shared" ref="F14:F16" ca="1" si="1">-G14*E14/D14</f>
-        <v>6.4637506561883038</v>
-      </c>
-      <c r="G14" s="1" cm="1">
-        <f t="array" aca="1" ref="G14" ca="1">_xll.BLACK.PUT.DELTA(E14, σ*SQRT(A14), k)-I14</f>
-        <v>-6.5118785440873572E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" ref="H14:H17" ca="1" si="2">H13+F14</f>
-        <v>7.7822501076806523</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" ref="I14:I17" ca="1" si="3">I13+G13</f>
-        <v>-0.50323044832128583</v>
-      </c>
-      <c r="J14" s="1" cm="1">
-        <f t="array" aca="1" ref="J14" ca="1">SUMPRODUCT(H14:I14+F14:G14,D14:E14)</f>
-        <v>-42.168867968747186</v>
-      </c>
-      <c r="K14" s="1">
+        <f ca="1"/>
+        <v>99.562965386046187</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" ref="G14:G16" ca="1" si="1">-H14*F14/E14</f>
+        <v>7.1738285603819323</v>
+      </c>
+      <c r="H14" s="11" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">_xll.BLACK.PUT.DELTA(F14, σ*SQRT(C14), k)-J14</f>
+        <v>-7.2053182953782824E-2</v>
+      </c>
+      <c r="I14" s="11">
+        <f ca="1">I13+G13</f>
+        <v>48.515596157164595</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14:J17" ca="1" si="2">J13+H13</f>
+        <v>-0.46528270796652593</v>
+      </c>
+      <c r="K14" s="1" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">SUMPRODUCT(I14:J14+G14:H14,E14:F14)</f>
+        <v>2.1906700091675404</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <f>t-B15</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
+      <c r="N14" s="1">
+        <f ca="1"/>
+        <v>3.3580852475440102</v>
+      </c>
+      <c r="O14" s="11">
+        <f ca="1"/>
+        <v>-7.2053182953782824E-2</v>
+      </c>
+      <c r="Q14" s="11">
+        <f ca="1"/>
+        <v>-0.46528270796652593</v>
+      </c>
+      <c r="T14" s="1">
+        <f ca="1"/>
+        <v>7.1738285603819323</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>0.15000000000000002</v>
       </c>
       <c r="C15" s="1">
-        <f ca="1"/>
-        <v>0.18016232776609653</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="D15" s="1">
+        <f ca="1"/>
+        <v>-5.4179970836195572E-2</v>
+      </c>
+      <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <f ca="1"/>
-        <v>101.74161557993931</v>
-      </c>
       <c r="F15" s="1">
+        <f ca="1"/>
+        <v>99.385098596121779</v>
+      </c>
+      <c r="G15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.612701708820758</v>
-      </c>
-      <c r="G15" s="1" cm="1">
-        <f t="array" aca="1" ref="G15" ca="1">_xll.BLACK.PUT.DELTA(E15, σ*SQRT(A15), k)-I15</f>
-        <v>0.28122908748524345</v>
-      </c>
-      <c r="H15" s="1">
+        <v>3.3580852475440102</v>
+      </c>
+      <c r="H15" s="11" cm="1">
+        <f t="array" aca="1" ref="H15" ca="1">_xll.BLACK.PUT.DELTA(F15, σ*SQRT(C15), k)-J15</f>
+        <v>-3.3788619169061729E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" ref="I15:I18" ca="1" si="3">I14+G14</f>
+        <v>55.68942471754653</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-20.830451601140105</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.5683492337621594</v>
-      </c>
-      <c r="J15" s="1" cm="1">
-        <f t="array" aca="1" ref="J15" ca="1">SUMPRODUCT(H15:I15+F15:G15,D15:E15)</f>
-        <v>-78.655220857722782</v>
-      </c>
-      <c r="K15" s="1">
+        <v>-0.53733589092030876</v>
+      </c>
+      <c r="K15" s="1" cm="1">
+        <f t="array" aca="1" ref="K15" ca="1">SUMPRODUCT(I15:J15+G15:H15,E15:F15)</f>
+        <v>2.2862442191967105</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <f>t-B16</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
+      <c r="N15" s="1">
+        <f ca="1"/>
+        <v>38.938911918913107</v>
+      </c>
+      <c r="O15" s="11">
+        <f ca="1"/>
+        <v>-3.3788619169061729E-2</v>
+      </c>
+      <c r="Q15" s="11">
+        <f ca="1"/>
+        <v>-0.53733589092030876</v>
+      </c>
+      <c r="T15" s="1">
+        <f ca="1"/>
+        <v>3.3580852475440102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>0.2</v>
       </c>
       <c r="C16" s="1">
-        <f ca="1"/>
-        <v>0.51577860621207039</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="D16" s="1">
+        <f ca="1"/>
+        <v>-0.44576106353368161</v>
+      </c>
+      <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
-        <f ca="1"/>
-        <v>105.1878760100392</v>
-      </c>
       <c r="F16" s="1">
+        <f ca="1"/>
+        <v>95.544688422663</v>
+      </c>
+      <c r="G16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.990809347737088</v>
-      </c>
-      <c r="G16" s="1" cm="1">
-        <f t="array" aca="1" ref="G16" ca="1">_xll.BLACK.PUT.DELTA(E16, σ*SQRT(A16), k)-I16</f>
-        <v>0.27560979884193293</v>
-      </c>
-      <c r="H16" s="1">
+        <v>38.938911918913107</v>
+      </c>
+      <c r="H16" s="11" cm="1">
+        <f t="array" aca="1" ref="H16" ca="1">_xll.BLACK.PUT.DELTA(F16, σ*SQRT(C16), k)-J16</f>
+        <v>-0.40754658957762513</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>59.047509965090541</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-49.821260948877196</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.28712014627691596</v>
-      </c>
-      <c r="J16" s="1" cm="1">
-        <f t="array" aca="1" ref="J16" ca="1">SUMPRODUCT(H16:I16+F16:G16,D16:E16)</f>
-        <v>-80.022819295437742</v>
-      </c>
-      <c r="K16" s="1">
+        <v>-0.57112451008937049</v>
+      </c>
+      <c r="K16" s="1" cm="1">
+        <f t="array" aca="1" ref="K16" ca="1">SUMPRODUCT(I16:J16+G16:H16,E16:F16)</f>
+        <v>4.4795965980555792</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <f>t-B17</f>
-        <v>0</v>
-      </c>
+      <c r="N16" s="1">
+        <f ca="1"/>
+        <v>-93.593155734377845</v>
+      </c>
+      <c r="O16" s="11">
+        <f ca="1"/>
+        <v>-0.40754658957762513</v>
+      </c>
+      <c r="Q16" s="11">
+        <f ca="1"/>
+        <v>-0.57112451008937049</v>
+      </c>
+      <c r="T16" s="1">
+        <f ca="1"/>
+        <v>38.938911918913107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>0.25</v>
       </c>
       <c r="C17" s="1">
-        <f ca="1"/>
-        <v>0.63103388219918455</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
+        <f ca="1"/>
+        <v>-0.43403279380477572</v>
+      </c>
+      <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1">
-        <f ca="1"/>
-        <v>106.38063667491173</v>
-      </c>
       <c r="F17" s="1">
-        <f ca="1">-SUM(F12:F16)</f>
-        <v>49.821260948877196</v>
-      </c>
-      <c r="G17" s="1">
+        <f ca="1"/>
+        <v>95.63290033416132</v>
+      </c>
+      <c r="G17" s="11">
         <f ca="1">-SUM(G12:G16)</f>
-        <v>1.1510347434983026E-2</v>
-      </c>
-      <c r="H17" s="1">
+        <v>-97.986421884003647</v>
+      </c>
+      <c r="H17" s="11">
+        <f ca="1">-SUM(H12:H16)</f>
+        <v>0.97867109966699561</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" ca="1" si="3"/>
+        <v>97.986421884003647</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" ca="1" si="2"/>
+        <v>-0.97867109966699561</v>
+      </c>
+      <c r="K17" s="1" cm="1">
+        <f t="array" aca="1" ref="K17" ca="1">SUMPRODUCT(I17:J17+G17:H17,E17:F17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>-1.1510347434983026E-2</v>
-      </c>
-      <c r="J17" s="1" cm="1">
-        <f t="array" aca="1" ref="J17" ca="1">SUMPRODUCT(H17:I17+F17:G17,D17:E17)</f>
-        <v>49.821260948877196</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-51.045739037360129</v>
-      </c>
+        <v>4.3932661496258021</v>
+      </c>
+      <c r="N17" s="1">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <f ca="1"/>
+        <v>0.97867109966699561</v>
+      </c>
+      <c r="Q17" s="11">
+        <f ca="1"/>
+        <v>-0.97867109966699561</v>
+      </c>
+      <c r="T17" s="1">
+        <f ca="1"/>
+        <v>-93.593155734377845</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I18" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
+  <mergeCells count="5">
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/hw6.xlsx
+++ b/hw6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6811\fsl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2779402F-A1D7-4777-B855-558EF5A3CC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306E682-1989-40E9-B556-FD8083E800E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="624" windowWidth="29424" windowHeight="15888" xr2:uid="{FFF01E12-B5FC-40DE-A282-E2B26797F4C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{FFF01E12-B5FC-40DE-A282-E2B26797F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_M">_xlfn.ANCHORARRAY(Sheet1!$N$12)</definedName>
     <definedName name="_N">_xlfn.ANCHORARRAY(Sheet1!$O$12)</definedName>
     <definedName name="_time">_xlfn.ANCHORARRAY(Sheet1!$C$12)</definedName>
-    <definedName name="A_t">_xlfn.ANCHORARRAY(Sheet1!$T$12)</definedName>
+    <definedName name="A_t">_xlfn.ANCHORARRAY(Sheet1!$S$12)</definedName>
     <definedName name="B_t">_xlfn.ANCHORARRAY(Sheet1!$D$12)</definedName>
     <definedName name="delta">Sheet1!$F$5</definedName>
     <definedName name="f">Sheet1!$C$4</definedName>
@@ -64,6 +64,20 @@
     <author>Keith Lewis</author>
   </authors>
   <commentList>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{62B80783-FB63-4237-A22E-7339379F48D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gamma_t = DV_t - Delta_t</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I10" authorId="0" shapeId="0" xr:uid="{9A5ED4F1-6284-446C-9B00-6E74B545B393}">
       <text>
         <r>
@@ -74,7 +88,8 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Delta_t = sum_s&lt;t_ Gamma_s</t>
+          <t>Delta_t = sum_s&lt;t_ Gamma_s
+DV_t = Delta_t + Gamma_t =- Delta_{t+1}</t>
         </r>
       </text>
     </comment>
@@ -147,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Put option hedging</t>
   </si>
@@ -222,6 +237,12 @@
   </si>
   <si>
     <t>delta</t>
+  </si>
+  <si>
+    <t>A_t = -Gamma_t . X_t = - _M R_t - _N S_t</t>
+  </si>
+  <si>
+    <t>If A_t = 0 then _M = -_N S_t/R_t</t>
   </si>
 </sst>
 </file>
@@ -230,7 +251,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -324,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -362,6 +383,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -372,7 +424,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -387,16 +439,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="4"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -803,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CA1D21-268D-4595-93D8-429A881B1BF8}">
-  <dimension ref="B2:T18"/>
+  <dimension ref="B2:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -813,21 +876,39 @@
     <col min="2" max="5" width="9.109375" style="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="8" width="9.109375" style="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.109375" style="8"/>
+    <col min="20" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">_xll.MONTE.COUNT()</f>
+        <v>30002</v>
+      </c>
+      <c r="G2" s="1" cm="1">
+        <f t="array" aca="1" ref="G2" ca="1">F2/_xll.MONTE.ELAPSED()</f>
+        <v>1061.7546094772977</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -837,27 +918,30 @@
         <f t="array" ref="F4">_xll.BLACK.PUT.VALUE(f,σ*SQRT(t),k)</f>
         <v>1.9945036390476076</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="9" cm="1">
+      <c r="F5" s="7" cm="1">
         <f t="array" ref="F5">_xll.BLACK.PUT.DELTA(f, σ*SQRT(t), k)</f>
         <v>-0.49002748180476197</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>0.25</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -865,79 +949,80 @@
       </c>
       <c r="F6" s="9" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">MAX(k-_xlfn.TAKE(S_t,-1),0)</f>
-        <v>4.3670996658386798</v>
-      </c>
-      <c r="G6" s="1">
+        <v>0.84311894036990509</v>
+      </c>
+      <c r="G6" s="8">
         <f t="array" aca="1" ref="G6:H6" ca="1">_xll.MONTE.STDEV(payoff)</f>
-        <v>1.9809206727980884</v>
-      </c>
-      <c r="H6" s="1">
-        <f ca="1"/>
-        <v>2.8332083243013</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+        <v>1.8392026637181405</v>
+      </c>
+      <c r="H6" s="8">
+        <f ca="1"/>
+        <v>2.7166624694141008</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="10">
-        <f ca="1">L17</f>
-        <v>4.3932661496258021</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="10" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">_xlfn.TAKE(A_t,-1)</f>
+        <v>-2.1889644623970383</v>
+      </c>
+      <c r="G7" s="8">
         <f t="array" aca="1" ref="G7:H7" ca="1">_xll.MONTE.STDEV(L17)</f>
-        <v>1.9805685950722043</v>
-      </c>
-      <c r="H7" s="1">
-        <f ca="1"/>
-        <v>2.7504197749936297</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+        <v>1.987169429945584</v>
+      </c>
+      <c r="H7" s="8">
+        <f ca="1"/>
+        <v>0.70151146347833659</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="E10" s="6" t="s">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="E10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="N10" s="7" t="s">
+      <c r="J10" s="14"/>
+      <c r="N10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7" t="s">
+      <c r="O10" s="16"/>
+      <c r="P10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -971,26 +1056,26 @@
       <c r="L11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="1" cm="1">
         <f t="array" ref="B12:B17">_xll.ARRAY.SEQUENCE(0, t, step)</f>
         <v>0</v>
@@ -1008,15 +1093,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" cm="1">
-        <f t="array" aca="1" ref="F12:F17" ca="1">f*EXP(σ*B_t - σ^2*time/2)</f>
+        <f t="array" aca="1" ref="F12:F17" ca="1">f*EXP(μ*time + σ*B_t - σ^2*time/2)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <f>value - f*delta</f>
         <v>50.997251819523804</v>
       </c>
-      <c r="H12" s="11">
-        <f>delta</f>
+      <c r="H12" s="8">
+        <f ca="1">J13</f>
         <v>-0.49002748180476197</v>
       </c>
       <c r="I12" s="1">
@@ -1025,7 +1110,7 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="1" cm="1">
+      <c r="K12" s="8" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">SUMPRODUCT(I12:J12+G12:H12,E12:F12)</f>
         <v>1.9945036390476076</v>
       </c>
@@ -1033,24 +1118,32 @@
         <f ca="1">-SUMPRODUCT(G12:H12,E12:F12)</f>
         <v>-1.9945036390476076</v>
       </c>
-      <c r="N12" s="1" cm="1">
-        <f t="array" aca="1" ref="N12:N17" ca="1">_xlfn.VSTACK(value-f*delta,_xlfn.DROP(-_N*S_t/R_t,2),0)</f>
+      <c r="N12" s="8" cm="1">
+        <f t="array" aca="1" ref="N12:N17" ca="1">_xlfn.LET(_xlpm._M, _xlfn.VSTACK(value-delta*f,_xlfn.DROP(_xlfn.DROP(-_N*S_t/R_t,1),-1)), _xlfn.VSTACK(_xlpm._M, -SUM(_xlpm._M)))</f>
         <v>50.997251819523804</v>
       </c>
-      <c r="O12" s="11" cm="1">
-        <f t="array" aca="1" ref="O12:O17" ca="1">_xlfn.VSTACK(_xlfn.DROP(N,1)-_xlfn.DROP(N,-1),-_xlfn.TAKE(N,-1))</f>
+      <c r="O12" s="8" cm="1">
+        <f t="array" aca="1" ref="O12:O17" ca="1">_xlfn.LET(_xlpm._N, _xlfn.DROP(N,1)-_xlfn.DROP(N,-1), _xlfn.VSTACK(_xlpm._N, -SUM(_xlpm._N)))</f>
         <v>-0.49002748180476197</v>
       </c>
-      <c r="Q12" s="11" cm="1">
-        <f t="array" aca="1" ref="Q12:Q17" ca="1">_xlfn.VSTACK(0,_xlfn.DROP(_xlfn.MAP(S_t,_time,_xlfn.LAMBDA(_xlpm.f,_xlpm._t,_xll.BLACK.PUT.DELTA(_xlpm.f,σ*SQRT(_xlpm._t),k))),-1))</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="1" cm="1">
-        <f t="array" aca="1" ref="T12:T17" ca="1">-_N*S_t</f>
-        <v>49.002748180476196</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="P12" s="8" cm="1">
+        <f t="array" aca="1" ref="P12:P17" ca="1">_xlfn.VSTACK(0,_xlfn.DROP(_xlfn.SCAN(0,_M,_xleta.SUM),-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8" cm="1">
+        <f t="array" aca="1" ref="Q12:Q17" ca="1">_xlfn.VSTACK(0,_xlfn.DROP(_xlfn.MAP(S_t,_time,_xlfn.LAMBDA(_xlpm.f,_xlpm.t,_xll.BLACK.PUT.DELTA(_xlpm.f,σ*SQRT(_xlpm.t),k))),-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="8" cm="1">
+        <f t="array" aca="1" ref="R12:R17" ca="1">(_M+M)*R_t+(_N+N)*S_t</f>
+        <v>1.9945036390476076</v>
+      </c>
+      <c r="S12" s="8" cm="1">
+        <f t="array" aca="1" ref="S12:S17" ca="1">-_M*R_t - _N*S_t</f>
+        <v>-1.9945036390476076</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>0.05</v>
       </c>
@@ -1059,57 +1152,65 @@
       </c>
       <c r="D13" s="1">
         <f ca="1"/>
-        <v>3.1467275446998573E-2</v>
+        <v>0.19518426300667321</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
-        <f ca="1"/>
-        <v>100.29009271139574</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="F13" s="11">
+        <f ca="1"/>
+        <v>101.94552604977241</v>
+      </c>
+      <c r="G13" s="8">
         <f ca="1">-H13*F13/E13</f>
-        <v>-2.4816556623592119</v>
-      </c>
-      <c r="H13" s="11" cm="1">
-        <f t="array" aca="1" ref="H13" ca="1">_xll.BLACK.PUT.DELTA(F13, σ*SQRT(C13), k)-J13</f>
-        <v>2.4744773838236034E-2</v>
-      </c>
-      <c r="I13" s="11">
+        <v>-16.803762622633233</v>
+      </c>
+      <c r="H13" s="8">
+        <f ca="1">J14-J13</f>
+        <v>0.16483080007286643</v>
+      </c>
+      <c r="I13" s="8">
         <f>G12</f>
         <v>50.997251819523804</v>
       </c>
-      <c r="J13" s="1">
-        <f>J12+H12</f>
+      <c r="J13" s="8" cm="1">
+        <f t="array" aca="1" ref="J13" ca="1">_xll.BLACK.PUT.DELTA(F12, σ*SQRT(C12), k)</f>
         <v>-0.49002748180476197</v>
       </c>
-      <c r="K13" s="1" cm="1">
+      <c r="K13" s="8" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">SUMPRODUCT(I13:J13+G13:H13,E13:F13)</f>
-        <v>1.8523502381924359</v>
+        <v>1.0411424080920639</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ref="L13:L17" ca="1" si="0">-SUMPRODUCT(G13:H13,E13:F13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="1">
-        <f ca="1"/>
-        <v>7.1738285603819323</v>
-      </c>
-      <c r="O13" s="11">
-        <f ca="1"/>
-        <v>2.4744773838236034E-2</v>
-      </c>
-      <c r="Q13" s="11">
+      <c r="N13" s="8">
+        <f ca="1"/>
+        <v>-16.803762622633233</v>
+      </c>
+      <c r="O13" s="8">
+        <f ca="1"/>
+        <v>0.16483080007286643</v>
+      </c>
+      <c r="P13" s="8">
+        <f ca="1"/>
+        <v>50.997251819523804</v>
+      </c>
+      <c r="Q13" s="8">
         <f ca="1"/>
         <v>-0.49002748180476197</v>
       </c>
-      <c r="T13" s="1">
-        <f ca="1"/>
-        <v>-2.4816556623592119</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="R13" s="8">
+        <f ca="1"/>
+        <v>1.0411424080920639</v>
+      </c>
+      <c r="S13" s="8">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>0.1</v>
       </c>
@@ -1118,57 +1219,65 @@
       </c>
       <c r="D14" s="1">
         <f ca="1"/>
-        <v>-3.8799240181780069E-2</v>
+        <v>0.29459013733799322</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
-        <f ca="1"/>
-        <v>99.562965386046187</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="F14" s="11">
+        <f ca="1"/>
+        <v>102.93824030693082</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" ref="G14:G16" ca="1" si="1">-H14*F14/E14</f>
-        <v>7.1738285603819323</v>
-      </c>
-      <c r="H14" s="11" cm="1">
-        <f t="array" aca="1" ref="H14" ca="1">_xll.BLACK.PUT.DELTA(F14, σ*SQRT(C14), k)-J14</f>
-        <v>-7.2053182953782824E-2</v>
-      </c>
-      <c r="I14" s="11">
+        <v>-10.672711593214144</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" ref="H14:H16" ca="1" si="2">J15-J14</f>
+        <v>0.10368072702031172</v>
+      </c>
+      <c r="I14" s="8">
         <f ca="1">I13+G13</f>
-        <v>48.515596157164595</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" ref="J14:J17" ca="1" si="2">J13+H13</f>
-        <v>-0.46528270796652593</v>
-      </c>
-      <c r="K14" s="1" cm="1">
+        <v>34.193489196890567</v>
+      </c>
+      <c r="J14" s="8" cm="1">
+        <f t="array" aca="1" ref="J14" ca="1">_xll.BLACK.PUT.DELTA(F13, σ*SQRT(C13), k)</f>
+        <v>-0.32519668173189553</v>
+      </c>
+      <c r="K14" s="8" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">SUMPRODUCT(I14:J14+G14:H14,E14:F14)</f>
-        <v>2.1906700091675404</v>
+        <v>0.71831502575620121</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="1">
-        <f ca="1"/>
-        <v>3.3580852475440102</v>
-      </c>
-      <c r="O14" s="11">
-        <f ca="1"/>
-        <v>-7.2053182953782824E-2</v>
-      </c>
-      <c r="Q14" s="11">
-        <f ca="1"/>
-        <v>-0.46528270796652593</v>
-      </c>
-      <c r="T14" s="1">
-        <f ca="1"/>
-        <v>7.1738285603819323</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N14" s="8">
+        <f ca="1"/>
+        <v>-10.672711593214144</v>
+      </c>
+      <c r="O14" s="8">
+        <f ca="1"/>
+        <v>0.10368072702031172</v>
+      </c>
+      <c r="P14" s="8">
+        <f ca="1"/>
+        <v>34.193489196890567</v>
+      </c>
+      <c r="Q14" s="8">
+        <f ca="1"/>
+        <v>-0.32519668173189553</v>
+      </c>
+      <c r="R14" s="8">
+        <f ca="1"/>
+        <v>0.71831502575620121</v>
+      </c>
+      <c r="S14" s="8">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>0.15000000000000002</v>
       </c>
@@ -1177,57 +1286,65 @@
       </c>
       <c r="D15" s="1">
         <f ca="1"/>
-        <v>-5.4179970836195572E-2</v>
+        <v>0.13668207642492544</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
-        <f ca="1"/>
-        <v>99.385098596121779</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="F15" s="11">
+        <f ca="1"/>
+        <v>101.3002008148824</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3580852475440102</v>
-      </c>
-      <c r="H15" s="11" cm="1">
-        <f t="array" aca="1" ref="H15" ca="1">_xll.BLACK.PUT.DELTA(F15, σ*SQRT(C15), k)-J15</f>
-        <v>-3.3788619169061729E-2</v>
-      </c>
-      <c r="I15" s="11">
-        <f t="shared" ref="I15:I18" ca="1" si="3">I14+G14</f>
-        <v>55.68942471754653</v>
-      </c>
-      <c r="J15" s="1">
+        <v>11.563409276984945</v>
+      </c>
+      <c r="H15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.53733589092030876</v>
-      </c>
-      <c r="K15" s="1" cm="1">
+        <v>-0.1141499146493905</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" ref="I15:I17" ca="1" si="3">I14+G14</f>
+        <v>23.520777603676422</v>
+      </c>
+      <c r="J15" s="8" cm="1">
+        <f t="array" aca="1" ref="J15" ca="1">_xll.BLACK.PUT.DELTA(F14, σ*SQRT(C14), k)</f>
+        <v>-0.22151595471158381</v>
+      </c>
+      <c r="K15" s="8" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">SUMPRODUCT(I15:J15+G15:H15,E15:F15)</f>
-        <v>2.2862442191967105</v>
+        <v>1.0811669076925838</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="1">
-        <f ca="1"/>
-        <v>38.938911918913107</v>
-      </c>
-      <c r="O15" s="11">
-        <f ca="1"/>
-        <v>-3.3788619169061729E-2</v>
-      </c>
-      <c r="Q15" s="11">
-        <f ca="1"/>
-        <v>-0.53733589092030876</v>
-      </c>
-      <c r="T15" s="1">
-        <f ca="1"/>
-        <v>3.3580852475440102</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N15" s="8">
+        <f ca="1"/>
+        <v>11.563409276984945</v>
+      </c>
+      <c r="O15" s="8">
+        <f ca="1"/>
+        <v>-0.1141499146493905</v>
+      </c>
+      <c r="P15" s="8">
+        <f ca="1"/>
+        <v>23.520777603676422</v>
+      </c>
+      <c r="Q15" s="8">
+        <f ca="1"/>
+        <v>-0.22151595471158381</v>
+      </c>
+      <c r="R15" s="8">
+        <f ca="1"/>
+        <v>1.0811669076925838</v>
+      </c>
+      <c r="S15" s="8">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>0.2</v>
       </c>
@@ -1236,57 +1353,65 @@
       </c>
       <c r="D16" s="1">
         <f ca="1"/>
-        <v>-0.44576106353368161</v>
+        <v>-0.70018219240440815</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1">
-        <f ca="1"/>
-        <v>95.544688422663</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="F16" s="11">
+        <f ca="1"/>
+        <v>93.144492175401211</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>38.938911918913107</v>
-      </c>
-      <c r="H16" s="11" cm="1">
-        <f t="array" aca="1" ref="H16" ca="1">_xll.BLACK.PUT.DELTA(F16, σ*SQRT(C16), k)-J16</f>
-        <v>-0.40754658957762513</v>
-      </c>
-      <c r="I16" s="11">
+        <v>61.806802618891858</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.66355831864435877</v>
+      </c>
+      <c r="I16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>59.047509965090541</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.57112451008937049</v>
-      </c>
-      <c r="K16" s="1" cm="1">
+        <v>35.084186880661363</v>
+      </c>
+      <c r="J16" s="8" cm="1">
+        <f t="array" aca="1" ref="J16" ca="1">_xll.BLACK.PUT.DELTA(F15, σ*SQRT(C15), k)</f>
+        <v>-0.33566586936097431</v>
+      </c>
+      <c r="K16" s="8" cm="1">
         <f t="array" aca="1" ref="K16" ca="1">SUMPRODUCT(I16:J16+G16:H16,E16:F16)</f>
-        <v>4.4795965980555792</v>
+        <v>3.8187599384188502</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="N16" s="1">
-        <f ca="1"/>
-        <v>-93.593155734377845</v>
-      </c>
-      <c r="O16" s="11">
-        <f ca="1"/>
-        <v>-0.40754658957762513</v>
-      </c>
-      <c r="Q16" s="11">
-        <f ca="1"/>
-        <v>-0.57112451008937049</v>
-      </c>
-      <c r="T16" s="1">
-        <f ca="1"/>
-        <v>38.938911918913107</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N16" s="8">
+        <f ca="1"/>
+        <v>61.806802618891858</v>
+      </c>
+      <c r="O16" s="8">
+        <f ca="1"/>
+        <v>-0.66355831864435877</v>
+      </c>
+      <c r="P16" s="8">
+        <f ca="1"/>
+        <v>35.084186880661363</v>
+      </c>
+      <c r="Q16" s="8">
+        <f ca="1"/>
+        <v>-0.33566586936097431</v>
+      </c>
+      <c r="R16" s="8">
+        <f ca="1"/>
+        <v>3.8187599384188502</v>
+      </c>
+      <c r="S16" s="8">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>0.25</v>
       </c>
@@ -1295,58 +1420,66 @@
       </c>
       <c r="D17" s="1">
         <f ca="1"/>
-        <v>-0.43403279380477572</v>
+        <v>-7.2169329298340301E-2</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1">
-        <f ca="1"/>
-        <v>95.63290033416132</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="F17" s="11">
+        <f ca="1"/>
+        <v>99.156881059630095</v>
+      </c>
+      <c r="G17" s="8">
         <f ca="1">-SUM(G12:G16)</f>
-        <v>-97.986421884003647</v>
-      </c>
-      <c r="H17" s="11">
+        <v>-96.890989499553228</v>
+      </c>
+      <c r="H17" s="8">
         <f ca="1">-SUM(H12:H16)</f>
-        <v>0.97867109966699561</v>
-      </c>
-      <c r="I17" s="11">
+        <v>0.99922418800533308</v>
+      </c>
+      <c r="I17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>97.986421884003647</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.97867109966699561</v>
+        <v>96.890989499553228</v>
+      </c>
+      <c r="J17" s="8" cm="1">
+        <f t="array" aca="1" ref="J17" ca="1">_xll.BLACK.PUT.DELTA(F16, σ*SQRT(C16), k)</f>
+        <v>-0.99922418800533308</v>
       </c>
       <c r="K17" s="1" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">SUMPRODUCT(I17:J17+G17:H17,E17:F17)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3932661496258021</v>
-      </c>
-      <c r="N17" s="1">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
-        <f ca="1"/>
-        <v>0.97867109966699561</v>
-      </c>
-      <c r="Q17" s="11">
-        <f ca="1"/>
-        <v>-0.97867109966699561</v>
-      </c>
-      <c r="T17" s="1">
-        <f ca="1"/>
-        <v>-93.593155734377845</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I18" s="11"/>
+        <v>-2.1889644623970383</v>
+      </c>
+      <c r="N17" s="8">
+        <f ca="1"/>
+        <v>-96.890989499553228</v>
+      </c>
+      <c r="O17" s="8">
+        <f ca="1"/>
+        <v>0.99922418800533308</v>
+      </c>
+      <c r="P17" s="8">
+        <f ca="1"/>
+        <v>96.890989499553228</v>
+      </c>
+      <c r="Q17" s="8">
+        <f ca="1"/>
+        <v>-0.99922418800533308</v>
+      </c>
+      <c r="R17" s="8">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
+        <f ca="1"/>
+        <v>-2.1889644623970383</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="I18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
